--- a/documentação/burn down/Sprint Brundown (11-11).xlsx
+++ b/documentação/burn down/Sprint Brundown (11-11).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Total</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>T6/T4</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>Hospedagem do Projeto</t>
+  </si>
+  <si>
+    <t>T6/T7</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="3"/>
@@ -294,6 +303,12 @@
       <i/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Franklin Gothic Medium"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Franklin Gothic Medium"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -425,7 +440,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,6 +522,9 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1944,8 +1962,8 @@
   </sheetPr>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W46" sqref="W46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2206,7 +2224,7 @@
         <v>14</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="S7" s="13"/>
       <c r="U7" s="11" t="s">
@@ -2471,7 +2489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
@@ -2527,6 +2545,12 @@
       <c r="S12" s="16">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
